--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed5/result_data_RandomForest.xlsx
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.784299999999993</v>
+        <v>-7.614799999999992</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.37959999999999</v>
+        <v>-11.3907</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.044200000000007</v>
+        <v>-7.860600000000002</v>
       </c>
     </row>
     <row r="24">
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.4567</v>
+        <v>-12.38239999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.792899999999994</v>
+        <v>-7.974099999999996</v>
       </c>
     </row>
     <row r="29">
@@ -883,10 +883,10 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.9683</v>
+        <v>-13.1219</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.401999999999999</v>
+        <v>-8.328899999999997</v>
       </c>
     </row>
     <row r="33">
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.993700000000001</v>
+        <v>-7.802700000000001</v>
       </c>
     </row>
     <row r="35">
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.87150000000001</v>
+        <v>-11.9093</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.3802</v>
+        <v>-12.2841</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.65349999999999</v>
+        <v>-8.693599999999995</v>
       </c>
     </row>
     <row r="43">
@@ -1079,7 +1079,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.63709999999999</v>
+        <v>-14.66469999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.829300000000001</v>
+        <v>-8.003300000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1191,10 +1191,10 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.58620000000001</v>
+        <v>-12.4267</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.137600000000004</v>
+        <v>-7.970100000000007</v>
       </c>
     </row>
     <row r="55">
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.52279999999999</v>
+        <v>-13.6874</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1219,7 +1219,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.74849999999999</v>
+        <v>-12.90869999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.174</v>
+        <v>-12.48909999999999</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.77989999999999</v>
+        <v>-11.77859999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1443,7 +1443,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.15050000000001</v>
+        <v>-11.75570000000001</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.090700000000004</v>
+        <v>-7.966500000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.873500000000002</v>
+        <v>-7.734100000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.9492</v>
+        <v>-13.4827</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.19529999999999</v>
+        <v>-14.36329999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.1727</v>
+        <v>-12.17599999999999</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.57309999999999</v>
+        <v>-10.5382</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.458499999999992</v>
+        <v>-8.200299999999993</v>
       </c>
     </row>
     <row r="98">
@@ -1821,10 +1821,10 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.1282</v>
+        <v>-12.7435</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.16829999999999</v>
+        <v>-8.124499999999998</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.617299999999996</v>
+        <v>-7.6287</v>
       </c>
     </row>
     <row r="102">
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-12.75760000000001</v>
+        <v>-12.44310000000001</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
